--- a/hw/breakout_pcb/pcb_parts.xlsx
+++ b/hw/breakout_pcb/pcb_parts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.wustl\499 senior design\2017spring\motorcontroller\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="12780" windowHeight="10115" activeTab="3"/>
+    <workbookView xWindow="2112" yWindow="0" windowWidth="12780" windowHeight="10116" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pin Connection" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="163">
   <si>
     <t>IMU</t>
   </si>
@@ -401,21 +406,6 @@
     <t>2x20 Pinhead 0.1" Female</t>
   </si>
   <si>
-    <t>$2.73</t>
-  </si>
-  <si>
-    <t>Digikey</t>
-  </si>
-  <si>
-    <t>S6104-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC202LFBN-RC/S6104-ND/807240</t>
-  </si>
-  <si>
-    <t>RPi compatible female pinhead connector</t>
-  </si>
-  <si>
     <t>Arduino MEGA PIN</t>
   </si>
   <si>
@@ -507,23 +497,65 @@
   </si>
   <si>
     <t>PMOS power protection</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en/connectors-interconnects/rectangular-connectors-headers-male-pins/314?FV=fffc0023%2C1140050%2C1600024%2C1680002%2C8d00002%2Cffe0013a&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;stock=1&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
+  </si>
+  <si>
+    <t>Parts list</t>
+  </si>
+  <si>
+    <t>connector(4pin) x2</t>
+  </si>
+  <si>
+    <t>connector(3pin) x6</t>
+  </si>
+  <si>
+    <t>connector(4pn) x1</t>
+  </si>
+  <si>
+    <t>2x18 Male</t>
+  </si>
+  <si>
+    <t>1x10</t>
+  </si>
+  <si>
+    <t>1x8    X4</t>
+  </si>
+  <si>
+    <t>Motor Connector x2</t>
+  </si>
+  <si>
+    <t>TPA X2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex-llc/1722642003/WM11661-ND/5291290</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex-llc/1722561103/WM11609-ND/5291234</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex-llc/1723101103/WM11588-ND/5344285</t>
+  </si>
+  <si>
+    <t>board connect to motor</t>
+  </si>
+  <si>
+    <t>Female header x2</t>
+  </si>
+  <si>
+    <t>Male header x2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -536,15 +568,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -552,7 +576,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -560,355 +584,38 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -934,251 +641,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1187,70 +655,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1511,22 +938,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1540,12 +966,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1559,12 +985,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1578,12 +1004,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1597,8 +1023,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1606,34 +1032,34 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9"/>
       <c r="G12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1644,34 +1070,34 @@
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1693,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1704,8 +1130,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1723,7 +1149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1766,18 +1192,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1799,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1811,40 +1237,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="20.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="23.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="26.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="4:4">
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:4">
+      <c r="D2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1859,18 +1283,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1903,18 +1327,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1932,13 +1356,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1956,17 +1380,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1999,13 +1423,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2054,7 +1478,7 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2064,7 +1488,7 @@
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2074,7 +1498,7 @@
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2084,286 +1508,285 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="25.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="13.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="14.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="11.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="15.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="12.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2">
       <c r="B33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2">
       <c r="B34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2">
       <c r="B35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2">
       <c r="B36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
       <c r="B37" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="5"/>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="6" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>115</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F47" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" t="s">
-        <v>118</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="6" t="s">
-        <v>121</v>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H47" r:id="rId1" display="https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC202LFBN-RC/S6104-ND/807240"/>
-  </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="F8:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E8:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="6:6">
+    <row r="8" spans="6:13">
       <c r="F8" t="s">
         <v>85</v>
       </c>
@@ -2396,13 +1819,13 @@
     </row>
     <row r="10" spans="6:13">
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I10" s="2">
         <v>7</v>
@@ -2414,13 +1837,13 @@
     </row>
     <row r="11" spans="6:13">
       <c r="F11" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I11" s="2">
         <v>3</v>
@@ -2432,13 +1855,13 @@
     </row>
     <row r="12" spans="6:13">
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
@@ -2450,13 +1873,13 @@
     </row>
     <row r="13" spans="6:13">
       <c r="F13" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I13" s="2">
         <v>3</v>
@@ -2468,13 +1891,13 @@
     </row>
     <row r="14" spans="6:13">
       <c r="F14" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I14" s="2">
         <v>7</v>
@@ -2486,13 +1909,13 @@
     </row>
     <row r="15" spans="6:13">
       <c r="F15" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I15" s="2">
         <v>6</v>
@@ -2504,13 +1927,13 @@
     </row>
     <row r="16" spans="6:13">
       <c r="F16" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -2520,10 +1943,10 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="6:13">
+    <row r="17" spans="5:13">
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2532,9 +1955,9 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="5:13">
       <c r="F18" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2546,15 +1969,15 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="5:13">
       <c r="F19" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -2564,15 +1987,15 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="5:13">
       <c r="F20" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -2582,7 +2005,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="6:13">
+    <row r="21" spans="5:13">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2592,9 +2015,9 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="5:13">
       <c r="F22" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>80</v>
@@ -2610,9 +2033,9 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="6:13">
+    <row r="23" spans="5:13">
       <c r="F23" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>84</v>
@@ -2628,7 +2051,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="6:13">
+    <row r="24" spans="5:13">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2638,7 +2061,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="6:13">
+    <row r="25" spans="5:13">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2648,15 +2071,15 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="6:13">
+    <row r="26" spans="5:13">
       <c r="F26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -2666,12 +2089,38 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
+    <row r="30" spans="5:13">
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13">
+      <c r="F31" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13">
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" display="https://www.digikey.com/product-detail/en/nichicon/UVZ1H102MHD1TO/493-13465-1-ND/4342176"/>
-    <hyperlink ref="G26" r:id="rId2" display="http://www.newark.com/infineon/ipd90p03p4l-04/mosfet-aec-q101-p-ch-30v-to-252/dp/79X1438?ost=IPD90P03P4L_04&amp;searchView=table&amp;iscrfnonsku=false&amp;ddkey=http%3Aen-US%2FElement14_US%2Fsearch"/>
+    <hyperlink ref="G16" r:id="rId1"/>
+    <hyperlink ref="G26" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hw/breakout_pcb/pcb_parts.xlsx
+++ b/hw/breakout_pcb/pcb_parts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="0" windowWidth="12780" windowHeight="10116" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="5280" yWindow="0" windowWidth="12780" windowHeight="10116"/>
   </bookViews>
   <sheets>
     <sheet name="Pin Connection" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
   <si>
     <t>IMU</t>
   </si>
@@ -48,19 +48,7 @@
     <t>Encoder1</t>
   </si>
   <si>
-    <t>D22(3.3V)</t>
-  </si>
-  <si>
-    <t>D23(3.3V)</t>
-  </si>
-  <si>
     <t>Encoder2</t>
-  </si>
-  <si>
-    <t>D24(3.3V)</t>
-  </si>
-  <si>
-    <t>D25(3.3V)</t>
   </si>
   <si>
     <t>MotorController 1</t>
@@ -365,7 +353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">R47K </t>
     </r>
@@ -374,7 +362,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(1% 1005)</t>
     </r>
@@ -385,7 +373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">R10k </t>
     </r>
@@ -394,7 +382,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(1% 1005)</t>
     </r>
@@ -545,13 +533,52 @@
   </si>
   <si>
     <t>Male header x2</t>
+  </si>
+  <si>
+    <t>resistor array</t>
+  </si>
+  <si>
+    <t>10k x4</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/CRA06S08310K0JTA/CRA6S810KCT-ND/1285853</t>
+  </si>
+  <si>
+    <t>alternative capacitor</t>
+  </si>
+  <si>
+    <t>1000 uF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/EEE-FK1H102AM/PCE4848CT-ND/1879879</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/EEV-TG1H102M/PCE3646CT-ND/616041</t>
+  </si>
+  <si>
+    <t>test point</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/keystone-electronics/5002/36-5002-ND/255328</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,13 +590,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,7 +604,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,34 +612,47 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -646,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -663,6 +703,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -941,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -997,16 +1040,16 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="C6" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1016,85 +1059,85 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
+      <c r="C8" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="G14" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1120,87 +1163,87 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
+      <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
         <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1226,14 +1269,14 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
+      <c r="A30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1259,242 +1302,242 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -1504,7 +1547,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1536,186 +1579,186 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5"/>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1723,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5"/>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -1747,23 +1790,23 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1773,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:M32"/>
+  <dimension ref="E8:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1788,44 +1831,44 @@
   <sheetData>
     <row r="8" spans="6:13">
       <c r="F8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="6:13">
       <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="6:13">
       <c r="F10" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I10" s="2">
         <v>7</v>
@@ -1837,13 +1880,13 @@
     </row>
     <row r="11" spans="6:13">
       <c r="F11" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I11" s="2">
         <v>3</v>
@@ -1855,13 +1898,13 @@
     </row>
     <row r="12" spans="6:13">
       <c r="F12" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
@@ -1873,13 +1916,13 @@
     </row>
     <row r="13" spans="6:13">
       <c r="F13" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I13" s="2">
         <v>3</v>
@@ -1891,13 +1934,13 @@
     </row>
     <row r="14" spans="6:13">
       <c r="F14" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I14" s="2">
         <v>7</v>
@@ -1909,13 +1952,13 @@
     </row>
     <row r="15" spans="6:13">
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I15" s="2">
         <v>6</v>
@@ -1927,13 +1970,13 @@
     </row>
     <row r="16" spans="6:13">
       <c r="F16" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -1946,7 +1989,7 @@
     <row r="17" spans="5:13">
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1957,7 +2000,7 @@
     </row>
     <row r="18" spans="5:13">
       <c r="F18" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1971,13 +2014,13 @@
     </row>
     <row r="19" spans="5:13">
       <c r="F19" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -1989,13 +2032,13 @@
     </row>
     <row r="20" spans="5:13">
       <c r="F20" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -2017,13 +2060,13 @@
     </row>
     <row r="22" spans="5:13">
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -2035,13 +2078,13 @@
     </row>
     <row r="23" spans="5:13">
       <c r="F23" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -2073,13 +2116,13 @@
     </row>
     <row r="26" spans="5:13">
       <c r="F26" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -2091,29 +2134,64 @@
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="5:13">
       <c r="F31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="5:13">
       <c r="F32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G32" t="s">
-        <v>158</v>
+      <c r="F38" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="G39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/hw/breakout_pcb/pcb_parts.xlsx
+++ b/hw/breakout_pcb/pcb_parts.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="0" windowWidth="12780" windowHeight="10116"/>
+    <workbookView xWindow="7392" yWindow="0" windowWidth="12780" windowHeight="10116"/>
   </bookViews>
   <sheets>
-    <sheet name="Pin Connection" sheetId="1" r:id="rId1"/>
-    <sheet name="Electronic components" sheetId="3" r:id="rId2"/>
-    <sheet name="Part list" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Seeeduino Pin" sheetId="1" r:id="rId1"/>
+    <sheet name="Arduino Pin" sheetId="6" r:id="rId2"/>
+    <sheet name="Electronic components" sheetId="3" r:id="rId3"/>
+    <sheet name="Part list" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="201">
   <si>
     <t>IMU</t>
   </si>
@@ -572,6 +573,93 @@
   </si>
   <si>
     <t>D25</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>Seeeduino Mega</t>
+  </si>
+  <si>
+    <t>SCL(D21)</t>
+  </si>
+  <si>
+    <t>SDA(D20)</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>SCK</t>
+  </si>
+  <si>
+    <t>Communication</t>
   </si>
 </sst>
 </file>
@@ -641,7 +729,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +739,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA66BD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -706,6 +818,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -713,6 +836,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA66BD3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -722,6 +850,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>33183</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6202680" y="750455"/>
+          <a:ext cx="5557683" cy="4344554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,314 +1153,664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="9" spans="1:5">
+      <c r="B9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="10" spans="1:5">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="D11" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="D13" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="D15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D21" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="F21" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="H21" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
+    <row r="26" spans="2:8">
+      <c r="B26" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="32" spans="2:8">
+      <c r="B32" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D32" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F32" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5" t="s">
+      <c r="H32" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D36" t="s">
         <v>3</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>42</v>
+    <row r="37" spans="2:7">
+      <c r="B37" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1556,12 +2077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1814,12 +2335,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E8:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2147,7 +2668,7 @@
       <c r="F31" t="s">
         <v>157</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2166,7 +2687,7 @@
       <c r="F36" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="7" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2177,12 +2698,12 @@
       <c r="F38" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="39" spans="5:7">
-      <c r="G39" t="s">
+      <c r="G39" s="7" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2190,7 +2711,7 @@
       <c r="E42" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2198,6 +2719,11 @@
   <hyperlinks>
     <hyperlink ref="G16" r:id="rId1"/>
     <hyperlink ref="G26" r:id="rId2"/>
+    <hyperlink ref="G36" r:id="rId3"/>
+    <hyperlink ref="G38" r:id="rId4"/>
+    <hyperlink ref="G39" r:id="rId5"/>
+    <hyperlink ref="F42" r:id="rId6"/>
+    <hyperlink ref="G31" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
